--- a/Fase 2/Planilla de cobro.xlsx
+++ b/Fase 2/Planilla de cobro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fraca\OneDrive\Escritorio\Capstone\Fase 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fraca\OneDrive\Escritorio\Capstone\Capstone0032025\Fase 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33FF8EC8-F25D-44E2-AE01-78A87E45F780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B40D7B1-219B-4912-A3B8-26A75A16A409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{888B8EF5-71D5-4313-9C52-6B066ABACBD1}"/>
+    <workbookView xWindow="700" yWindow="1890" windowWidth="18500" windowHeight="8310" activeTab="1" xr2:uid="{888B8EF5-71D5-4313-9C52-6B066ABACBD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Proyecto" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Planilla de Cobro – Desarrollo Sistema de Cotizaciones Digital</t>
   </si>
@@ -92,12 +92,6 @@
     <t>Cantidad</t>
   </si>
   <si>
-    <t>Valor Unitario (CLP)</t>
-  </si>
-  <si>
-    <t>Total (CLP)</t>
-  </si>
-  <si>
     <t>Diseño y desarrollo del sistema web (módulos de clientes, productos, cotizaciones y PDF)</t>
   </si>
   <si>
@@ -156,15 +150,25 @@
   </si>
   <si>
     <t>Entrega estimada: 8 a 10 semanas desde aprobación.</t>
+  </si>
+  <si>
+    <t>Valor total (CLP)</t>
+  </si>
+  <si>
+    <t>Valor por hora (CLP)</t>
+  </si>
+  <si>
+    <t>Tiempo de ejecucion (Horas)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;\-#,##0"/>
+  <numFmts count="3">
     <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ [$$-340A]* #,##0.00_ ;_ [$$-340A]* \-#,##0.00_ ;_ [$$-340A]* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -233,7 +237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -376,65 +380,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -447,29 +417,77 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Millares [0]" xfId="2" builtinId="6"/>
     <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -786,7 +804,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -798,81 +816,81 @@
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="13">
-        <v>45953</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="24">
+        <v>45968</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -897,10 +915,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEC6BBC-E2EF-4336-8FE9-6894B832C706}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -908,134 +926,163 @@
     <col min="1" max="1" width="21.453125" customWidth="1"/>
     <col min="2" max="2" width="21.81640625" customWidth="1"/>
     <col min="3" max="3" width="11.26953125" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="21.6328125" customWidth="1"/>
+    <col min="4" max="5" width="19.90625" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:10" ht="36" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12">
+        <v>30000</v>
+      </c>
+      <c r="E4" s="11">
+        <v>75</v>
+      </c>
+      <c r="F4" s="13">
+        <f>(D4*E4)</f>
+        <v>2250000</v>
+      </c>
+      <c r="H4" s="14">
+        <f>(F4+F5+F6+F7+F8)</f>
+        <v>3810000</v>
+      </c>
+      <c r="I4" s="15">
+        <f>(H4*0.19)</f>
+        <v>723900</v>
+      </c>
+      <c r="J4" s="16">
+        <f>(H4+I4)</f>
+        <v>4533900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="22">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="D5" s="12">
+        <v>30000</v>
+      </c>
+      <c r="E5" s="11">
         <v>20</v>
       </c>
-      <c r="C4" s="17">
+      <c r="F5" s="13">
+        <f t="shared" ref="F5:F8" si="0">(D5*E5)</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="18">
-        <v>850000</v>
-      </c>
-      <c r="E4" s="23">
-        <v>850000</v>
-      </c>
-      <c r="G4" s="28">
-        <v>1180000</v>
-      </c>
-      <c r="H4" s="29">
-        <v>224200</v>
-      </c>
-      <c r="I4" s="30">
-        <v>1404200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="22">
-        <v>2</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="D6" s="12">
+        <v>30000</v>
+      </c>
+      <c r="E6" s="11">
+        <v>8</v>
+      </c>
+      <c r="F6" s="13">
+        <f t="shared" si="0"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="18">
-        <v>100000</v>
-      </c>
-      <c r="E5" s="23">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="22">
-        <v>3</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="D7" s="12">
+        <v>30000</v>
+      </c>
+      <c r="E7" s="11">
+        <v>16</v>
+      </c>
+      <c r="F7" s="13">
+        <f t="shared" si="0"/>
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="18">
-        <v>100000</v>
-      </c>
-      <c r="E6" s="23">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="22">
-        <v>4</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="17">
-        <v>1</v>
-      </c>
-      <c r="D7" s="18">
-        <v>80000</v>
-      </c>
-      <c r="E7" s="23">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="24">
-        <v>5</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="25">
-        <v>1</v>
-      </c>
-      <c r="D8" s="26">
-        <v>50000</v>
-      </c>
-      <c r="E8" s="27">
-        <v>50000</v>
+      <c r="D8" s="12">
+        <v>30000</v>
+      </c>
+      <c r="E8" s="17">
+        <v>8</v>
+      </c>
+      <c r="F8" s="13">
+        <f t="shared" si="0"/>
+        <v>240000</v>
       </c>
     </row>
   </sheetData>
@@ -1047,7 +1094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADC7588-180B-455B-AEE6-2888B284BB07}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1057,80 +1104,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+      <c r="B4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="9" spans="1:5" ht="33.5" x14ac:dyDescent="0.75">
+      <c r="A9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="11" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="9" spans="1:5" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="A9" s="33" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
